--- a/test/xlsx/images.xlsx
+++ b/test/xlsx/images.xlsx
@@ -64,7 +64,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="_jsExcelWriter4"/>
+        <xdr:cNvPr id="1" name="excelWriter1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -98,7 +98,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="battery01"/>
+        <xdr:cNvPr id="2" name="battery01"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -132,7 +132,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="battery01"/>
+        <xdr:cNvPr id="3" name="battery01"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -166,7 +166,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="_jsExcelWriter6"/>
+        <xdr:cNvPr id="4" name="excelWriter3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -195,7 +195,7 @@
     <xdr:ext cx="476250" cy="142875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="_jsExcelWriter7"/>
+        <xdr:cNvPr id="5" name="excelWriter4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -224,7 +224,7 @@
     <xdr:ext cx="476250" cy="142875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="_jsExcelWriter7"/>
+        <xdr:cNvPr id="6" name="excelWriter4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -248,7 +248,7 @@
     <xdr:ext cx="762000" cy="285750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="_jsExcelWriter8"/>
+        <xdr:cNvPr id="7" name="excelWriter5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -287,7 +287,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="_jsExcelWriter4"/>
+        <xdr:cNvPr id="8" name="excelWriter1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>

--- a/test/xlsx/images.xlsx
+++ b/test/xlsx/images.xlsx
@@ -5,8 +5,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId2" state="visible"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId3" state="visible"/>
   </sheets>
 </workbook>
 </file>
